--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail9 Features.xlsx
@@ -3427,7 +3427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,29 +3438,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="17" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="19" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3481,115 +3479,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3606,72 +3594,66 @@
         <v>1.242490540338893e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4773885775298256</v>
+        <v>5.756211715042474e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7721659972810171</v>
+        <v>1.580131262373445e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.756211715042474e-06</v>
+        <v>0.03361865920077921</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.580131262373445e-05</v>
+        <v>0.2978498785037518</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03361865920077921</v>
+        <v>0.08977767203948676</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2978498785037518</v>
+        <v>1.651559486288417</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08977767203948676</v>
+        <v>2.000800689046416</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.772034346889178</v>
+        <v>10.34756565746386</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.000800689046416</v>
+        <v>2.607324662973432e-11</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10.34756565746386</v>
+        <v>16584322.86019934</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.607324662973432e-11</v>
+        <v>6.40597187541546e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>16584322.86019934</v>
+        <v>7171.179618824082</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.40597187541546e-06</v>
+        <v>2.605764312636885e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7171.179618824082</v>
+        <v>9.116597343850851</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.605764312636885e-05</v>
+        <v>1.956854091741699</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.116597343850851</v>
+        <v>0.002165711880906039</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.956854091741699</v>
+        <v>7.706209459498218</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.002165711880906039</v>
+        <v>0.9430928802922353</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.706209459498218</v>
+        <v>0.4382889594162519</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9430928802922353</v>
+        <v>41</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.4382889594162519</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>12.90326269281263</v>
       </c>
     </row>
@@ -3686,72 +3668,66 @@
         <v>1.197889816123788e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6388524082095783</v>
+        <v>4.578203708395076e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9233393878539387</v>
+        <v>1.583205396962339e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.578203708395076e-06</v>
+        <v>0.01699257799543448</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.583205396962339e-05</v>
+        <v>0.2834385099175344</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01699257799543448</v>
+        <v>0.08057161542347679</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2834385099175344</v>
+        <v>1.643519239910877</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08057161542347679</v>
+        <v>1.660670504992962</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.774637215980915</v>
+        <v>14.57321118037035</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.660670504992962</v>
+        <v>1.293068709984475e-11</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>14.57321118037035</v>
+        <v>23215413.75836574</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.293068709984475e-11</v>
+        <v>4.593140544745044e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>23215413.75836574</v>
+        <v>6969.064103315855</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.593140544745044e-06</v>
+        <v>0.0001258831069060063</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6969.064103315855</v>
+        <v>8.836551113567442</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001258831069060063</v>
+        <v>1.931674809031069</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.836551113567442</v>
+        <v>0.009829536528772304</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.931674809031069</v>
+        <v>5.220034886324088</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009829536528772304</v>
+        <v>0.9444608948999406</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.220034886324088</v>
+        <v>0.4545975165105987</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9444608948999406</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.4545975165105987</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.40615713308168</v>
       </c>
     </row>
@@ -3766,72 +3742,66 @@
         <v>1.185824640245871e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6664340469856811</v>
+        <v>3.791197233631238e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9195518315361753</v>
+        <v>1.584287164740156e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.791197233631238e-06</v>
+        <v>0.001502185758049021</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.584287164740156e-05</v>
+        <v>0.2639848088632047</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.001502185758049021</v>
+        <v>0.06964449820748785</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2639848088632047</v>
+        <v>1.63479907805065</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06964449820748785</v>
+        <v>1.089350019626091</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.717315705031692</v>
+        <v>34.67047431374049</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.089350019626091</v>
+        <v>4.887095246394614e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>34.67047431374049</v>
+        <v>96346057.4053735</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.887095246394614e-13</v>
+        <v>7.499262015858599e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>96346057.4053735</v>
+        <v>4536.476842457075</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.499262015858599e-07</v>
+        <v>0.0001417350112692135</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4536.476842457075</v>
+        <v>10.18337025789979</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001417350112692135</v>
+        <v>1.157494510353402</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.18337025789979</v>
+        <v>0.01469806662867542</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.157494510353402</v>
+        <v>2.950244297222236</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01469806662867542</v>
+        <v>0.9439245571003193</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.950244297222236</v>
+        <v>0.8295457637243282</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9439245571003193</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8295457637243282</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1814488374194924</v>
       </c>
     </row>
@@ -3846,72 +3816,66 @@
         <v>1.189760347011687e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6705285808393781</v>
+        <v>3.791197233631238e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9262311106636414</v>
+        <v>1.583605828866159e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.791197233631238e-06</v>
+        <v>-0.01265631515998893</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.583605828866159e-05</v>
+        <v>0.2408788696634155</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01265631515998893</v>
+        <v>0.05814254271688547</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2408788696634155</v>
+        <v>1.594667643565355</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05814254271688547</v>
+        <v>1.366084128042937</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.500105748185884</v>
+        <v>4.161696553148228</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.366084128042937</v>
+        <v>1.957616672417934e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.161696553148228</v>
+        <v>4607741.29141521</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.957616672417934e-13</v>
+        <v>2.383196238875612e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4607741.29141521</v>
+        <v>4.156270733011048</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.383196238875612e-05</v>
+        <v>0.0001324783092628393</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.156270733011048</v>
+        <v>8.470569418408617</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001324783092628393</v>
+        <v>1.266293829805726</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.470569418408617</v>
+        <v>0.009505391058810181</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.266293829805726</v>
+        <v>3.039121960785621</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009505391058810181</v>
+        <v>0.9437485571061495</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.039121960785621</v>
+        <v>1.840149780663489</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9437485571061495</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.840149780663489</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1882048269294221</v>
       </c>
     </row>
@@ -3926,72 +3890,66 @@
         <v>1.196010417771438e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7030891607691494</v>
+        <v>3.791197233631238e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9124269314368512</v>
+        <v>1.581463949967208e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.791197233631238e-06</v>
+        <v>-0.02180258448867512</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.581463949967208e-05</v>
+        <v>0.2278956732357415</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02180258448867512</v>
+        <v>0.05240470598172794</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2278956732357415</v>
+        <v>1.593059358157342</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05240470598172794</v>
+        <v>1.374601359923525</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.495898880851156</v>
+        <v>4.622462408544765</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.374601359923525</v>
+        <v>1.466735357968532e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.622462408544765</v>
+        <v>6122161.663292038</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.466735357968532e-13</v>
+        <v>1.791847669788655e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6122161.663292038</v>
+        <v>5.497450764214549</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.791847669788655e-05</v>
+        <v>0.0001355211464937498</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.497450764214549</v>
+        <v>8.031917300914394</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001355211464937498</v>
+        <v>1.379259587826283</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.031917300914394</v>
+        <v>0.008742698940308925</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.379259587826283</v>
+        <v>2.976634450690495</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008742698940308925</v>
+        <v>0.9452964081950571</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.976634450690495</v>
+        <v>1.847919113316177</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9452964081950571</v>
+        <v>2</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.847919113316177</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1950758248770332</v>
       </c>
     </row>
@@ -4006,72 +3964,66 @@
         <v>1.198653839002351e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7574277728398457</v>
+        <v>3.791197233631238e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8554084485642699</v>
+        <v>1.578549042506206e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.791197233631238e-06</v>
+        <v>-0.02659192440805066</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.578549042506206e-05</v>
+        <v>0.2237423486138218</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02659192440805066</v>
+        <v>0.05076385351097679</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2237423486138218</v>
+        <v>1.582521167231839</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05076385351097679</v>
+        <v>1.399269480308251</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.485858724545578</v>
+        <v>4.97938443667914</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.399269480308251</v>
+        <v>1.045539646832279e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.97938443667914</v>
+        <v>8598077.974242106</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.045539646832279e-13</v>
+        <v>1.27268713526614e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8598077.974242106</v>
+        <v>7.729355181105787</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.27268713526614e-05</v>
+        <v>0.0001434051516610354</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.729355181105787</v>
+        <v>8.484513270326499</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001434051516610354</v>
+        <v>1.354292091423898</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.484513270326499</v>
+        <v>0.01032330169573017</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.354292091423898</v>
+        <v>2.866917520984176</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01032330169573017</v>
+        <v>0.9457095498928194</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.866917520984176</v>
+        <v>1.864974465381973</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9457095498928194</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.864974465381973</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1914790130371483</v>
       </c>
     </row>
@@ -4448,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.600697715044859</v>
+        <v>1.558926955236051</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.905219743409302</v>
@@ -4537,7 +4489,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.61966610273727</v>
+        <v>1.563341032803603</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.738517613237871</v>
@@ -4626,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620121225840029</v>
+        <v>1.556947377969239</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.660042598642604</v>
@@ -4715,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645133311414423</v>
+        <v>1.554366975817657</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.688365534255985</v>
@@ -4804,7 +4756,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.631624769652465</v>
+        <v>1.533509937564108</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.829760365412328</v>
@@ -4893,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629410077453994</v>
+        <v>1.528698786369527</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.866576492345127</v>
@@ -4982,7 +4934,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631589526421114</v>
+        <v>1.525628569080919</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.270791380740578</v>
@@ -5071,7 +5023,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.645360851238623</v>
+        <v>1.53327874228125</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.003582005808269</v>
@@ -5160,7 +5112,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.63266483774909</v>
+        <v>1.523255972474391</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.030382706263514</v>
@@ -5249,7 +5201,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.636708502970855</v>
+        <v>1.518359707001352</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.902935905097459</v>
@@ -5338,7 +5290,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642625145543684</v>
+        <v>1.520273636025972</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.167384501018028</v>
@@ -5427,7 +5379,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626693532655276</v>
+        <v>1.503211818555874</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.14956332466953</v>
@@ -5516,7 +5468,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.633660815201468</v>
+        <v>1.521180318268025</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.912016924874711</v>
@@ -5605,7 +5557,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.635688669351568</v>
+        <v>1.525170591124372</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.904149370898951</v>
@@ -5694,7 +5646,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641822822763486</v>
+        <v>1.52673230645902</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.971505892828638</v>
@@ -5783,7 +5735,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.646828272049471</v>
+        <v>1.523661106174745</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.051518284248534</v>
@@ -5872,7 +5824,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.645588749821787</v>
+        <v>1.519827128168056</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.279722739316097</v>
@@ -5961,7 +5913,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652498203481435</v>
+        <v>1.523104989214443</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.946163392508534</v>
@@ -6050,7 +6002,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.669328448913272</v>
+        <v>1.53649883949173</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.830056445338244</v>
@@ -6139,7 +6091,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.673465186887097</v>
+        <v>1.536170387657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.014964855232306</v>
@@ -6228,7 +6180,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.673463887501064</v>
+        <v>1.531178519002677</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.262326098389143</v>
@@ -6317,7 +6269,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.672540590725394</v>
+        <v>1.521160599770797</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.113978238998942</v>
@@ -6406,7 +6358,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.677666133446117</v>
+        <v>1.52650074909423</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.271382041986449</v>
@@ -6495,7 +6447,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.676880698485367</v>
+        <v>1.525444856778145</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.080047159483382</v>
@@ -6584,7 +6536,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.668692236988846</v>
+        <v>1.527003452454782</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.24255258756188</v>
@@ -6673,7 +6625,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.656069097177475</v>
+        <v>1.523819308350204</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.16906508379029</v>
@@ -6762,7 +6714,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.678505268544238</v>
+        <v>1.543715998109663</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.868395445037253</v>
@@ -6851,7 +6803,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.673218942245157</v>
+        <v>1.530340022032918</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.924807389792097</v>
@@ -6940,7 +6892,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.665640328572686</v>
+        <v>1.527081080416769</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.124766324012434</v>
@@ -7029,7 +6981,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.654652888412883</v>
+        <v>1.517622423960183</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.958099723117292</v>
@@ -7118,7 +7070,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.663608786199263</v>
+        <v>1.528392497902558</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.795154428768406</v>
@@ -7207,7 +7159,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654939064951056</v>
+        <v>1.530653669677996</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.808786225390361</v>
@@ -7296,7 +7248,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645593875262533</v>
+        <v>1.523414137675304</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.270778431161422</v>
@@ -7385,7 +7337,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642571919408877</v>
+        <v>1.521006849762048</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.137392097783664</v>
@@ -7474,7 +7426,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.635938585154454</v>
+        <v>1.524809602364431</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.212678394044601</v>
@@ -7563,7 +7515,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660872855161359</v>
+        <v>1.563006913384769</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.697418227247412</v>
@@ -7652,7 +7604,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659817431165998</v>
+        <v>1.584643348831374</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.897093996672838</v>
@@ -7741,7 +7693,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659893827172683</v>
+        <v>1.582782077584471</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.709671059165621</v>
@@ -7830,7 +7782,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661143942531532</v>
+        <v>1.597445246131131</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.88021480297181</v>
@@ -7919,7 +7871,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668802385549143</v>
+        <v>1.603326072140182</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.777006128757287</v>
@@ -8008,7 +7960,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.665538660988508</v>
+        <v>1.604932636662763</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.982587925458096</v>
@@ -8097,7 +8049,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.670396281123333</v>
+        <v>1.606588145147049</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.137232739228016</v>
@@ -8186,7 +8138,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.682682289938337</v>
+        <v>1.631544773446512</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.13116868943081</v>
@@ -8275,7 +8227,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.688872515069643</v>
+        <v>1.64229217703582</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.000296380687888</v>
@@ -8364,7 +8316,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.688516573392243</v>
+        <v>1.6462800990335</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.046477167545365</v>
@@ -8453,7 +8405,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.683102046663677</v>
+        <v>1.642307430341468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.204642105204981</v>
@@ -8542,7 +8494,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68333367441904</v>
+        <v>1.646120671588559</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.292526255791066</v>
@@ -8631,7 +8583,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.686509097717671</v>
+        <v>1.658215813239618</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.248736841699625</v>
@@ -8720,7 +8672,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672511293916056</v>
+        <v>1.653311851636339</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.309354197241757</v>
@@ -8809,7 +8761,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686696428061602</v>
+        <v>1.6673076263188</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.341996425024982</v>
@@ -8898,7 +8850,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.666718367122861</v>
+        <v>1.645976347199046</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.085359199955309</v>
@@ -9184,7 +9136,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.74428781581066</v>
+        <v>1.675347379182686</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.959955666655558</v>
@@ -9273,7 +9225,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.769453269844715</v>
+        <v>1.688375461113868</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.861100659019373</v>
@@ -9362,7 +9314,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.74871580061139</v>
+        <v>1.663713089195141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.856153193021548</v>
@@ -9451,7 +9403,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725433207049819</v>
+        <v>1.645583228682837</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.559426686945323</v>
@@ -9540,7 +9492,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.724268338673638</v>
+        <v>1.626016239110616</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.325161718663201</v>
@@ -9629,7 +9581,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.731844794746369</v>
+        <v>1.625595627594864</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.569693241706467</v>
@@ -9718,7 +9670,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.723078625592534</v>
+        <v>1.625306219481506</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.971240222219984</v>
@@ -9807,7 +9759,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.729432972946099</v>
+        <v>1.626857979789774</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.081770317363048</v>
@@ -9896,7 +9848,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.729379680174699</v>
+        <v>1.609947167626686</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.995510301551462</v>
@@ -9985,7 +9937,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.734632044546873</v>
+        <v>1.614708473449276</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.647943590539051</v>
@@ -10074,7 +10026,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.735279475930311</v>
+        <v>1.614204932391189</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.800071849656625</v>
@@ -10163,7 +10115,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.731357678084669</v>
+        <v>1.611134495092061</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.514104420618017</v>
@@ -10252,7 +10204,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.74072042516885</v>
+        <v>1.620278693268604</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.126757462713246</v>
@@ -10341,7 +10293,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.749590359268109</v>
+        <v>1.640743959392103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.171212168423049</v>
@@ -10430,7 +10382,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.749698873910706</v>
+        <v>1.631623784750765</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.060575266252527</v>
@@ -10519,7 +10471,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.753149779761346</v>
+        <v>1.624772593260286</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.002627397064284</v>
@@ -10608,7 +10560,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.759278353139052</v>
+        <v>1.636557440992509</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.813356268868406</v>
@@ -10697,7 +10649,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.768868150324107</v>
+        <v>1.641977267034691</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.449464795602692</v>
@@ -10786,7 +10738,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.78193627024392</v>
+        <v>1.650798594807686</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.015498219057533</v>
@@ -10875,7 +10827,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.779075332166288</v>
+        <v>1.639814512958318</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.801425125069352</v>
@@ -10964,7 +10916,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.778942873194235</v>
+        <v>1.63325586957487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.105171303600226</v>
@@ -11053,7 +11005,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.762079167499971</v>
+        <v>1.607124662888705</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.646239754450614</v>
@@ -11142,7 +11094,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.763281611081097</v>
+        <v>1.613051015051858</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.030219371041286</v>
@@ -11231,7 +11183,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.765761194441842</v>
+        <v>1.630026689418004</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.390104293986946</v>
@@ -11320,7 +11272,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.767025399052416</v>
+        <v>1.631184760475618</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.604729952135088</v>
@@ -11409,7 +11361,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.767158081026361</v>
+        <v>1.632961582551127</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.681841123295926</v>
@@ -11498,7 +11450,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.772864492562691</v>
+        <v>1.631287733548293</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.55059472696006</v>
@@ -11587,7 +11539,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.768604562201745</v>
+        <v>1.631494940209862</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.281440930060806</v>
@@ -11676,7 +11628,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.767008021183213</v>
+        <v>1.636917290497205</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.548654411077782</v>
@@ -11765,7 +11717,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.764017132767068</v>
+        <v>1.645014742109319</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.503874301669421</v>
@@ -11854,7 +11806,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.761789520765046</v>
+        <v>1.647615574973586</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.295746822883467</v>
@@ -11943,7 +11895,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.758699968254577</v>
+        <v>1.639670111225983</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.251870598022975</v>
@@ -12032,7 +11984,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.763253231714893</v>
+        <v>1.652016724595198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.451403457386413</v>
@@ -12121,7 +12073,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.765052294546342</v>
+        <v>1.661597445205923</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.246723181427455</v>
@@ -12210,7 +12162,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.767835948648246</v>
+        <v>1.665718045089703</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.256152659236166</v>
@@ -12299,7 +12251,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.763872599073397</v>
+        <v>1.680134414790203</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.182730038375527</v>
@@ -12388,7 +12340,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.78815684161888</v>
+        <v>1.720107757777795</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.304094451773743</v>
@@ -12477,7 +12429,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.783104137179205</v>
+        <v>1.710028126437476</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.368456215251238</v>
@@ -12566,7 +12518,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.785529425122728</v>
+        <v>1.717548035985598</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.147231519593487</v>
@@ -12655,7 +12607,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.780391743280784</v>
+        <v>1.720653696773137</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.077831662309153</v>
@@ -12744,7 +12696,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.756642686017575</v>
+        <v>1.706945306948937</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.940500801002542</v>
@@ -12833,7 +12785,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.758969113533152</v>
+        <v>1.710576268219382</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.022398048268559</v>
@@ -12922,7 +12874,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.752589672299274</v>
+        <v>1.718502871183344</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.983722765195935</v>
@@ -13011,7 +12963,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.761971275834587</v>
+        <v>1.729978017082761</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.062683698337135</v>
@@ -13100,7 +13052,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.759475700590933</v>
+        <v>1.733520821234072</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.104560240401392</v>
@@ -13189,7 +13141,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.739225649880799</v>
+        <v>1.725770326593439</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.091914538819016</v>
@@ -13278,7 +13230,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.727098830506986</v>
+        <v>1.717211951231829</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.145324169136135</v>
@@ -13367,7 +13319,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.725799128568657</v>
+        <v>1.712985240074947</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.169643274656337</v>
@@ -13456,7 +13408,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.729295543764267</v>
+        <v>1.72349639742469</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.367500920805369</v>
@@ -13545,7 +13497,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.739068391346289</v>
+        <v>1.732268793977863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.250846556646708</v>
@@ -13634,7 +13586,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.729031137354716</v>
+        <v>1.714479150283277</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.217349068378922</v>
@@ -13920,7 +13872,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.817481989456216</v>
+        <v>1.759908735411174</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.862940144556471</v>
@@ -14009,7 +13961,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.812903683387317</v>
+        <v>1.743989412811735</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.9927185993554</v>
@@ -14098,7 +14050,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.794637339881276</v>
+        <v>1.72158006942667</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.7309414523934</v>
@@ -14187,7 +14139,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.78898100472769</v>
+        <v>1.703060526702624</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.13143740697164</v>
@@ -14276,7 +14228,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.744749406918847</v>
+        <v>1.637773684981992</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.220935515265288</v>
@@ -14365,7 +14317,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.731070075515204</v>
+        <v>1.609933137196393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.800219722036552</v>
@@ -14454,7 +14406,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.729577440256928</v>
+        <v>1.607546892574652</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.780453507397359</v>
@@ -14543,7 +14495,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.737989931633457</v>
+        <v>1.614485622292603</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.02280092524732</v>
@@ -14632,7 +14584,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.732126550265386</v>
+        <v>1.599147693422356</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.872561265994368</v>
@@ -14721,7 +14673,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730454849990785</v>
+        <v>1.596298640475701</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.106421471321206</v>
@@ -14810,7 +14762,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.730435614575475</v>
+        <v>1.595485344621042</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.715844389868498</v>
@@ -14899,7 +14851,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.722510046251498</v>
+        <v>1.585208231560922</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.767265090940807</v>
@@ -14988,7 +14940,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.723482029977016</v>
+        <v>1.587445922866455</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.683949070558357</v>
@@ -15077,7 +15029,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.730807904907562</v>
+        <v>1.593794581289153</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.795430375933121</v>
@@ -15166,7 +15118,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.730791441010597</v>
+        <v>1.601547107428776</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.840948525444242</v>
@@ -15255,7 +15207,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.725807027197364</v>
+        <v>1.594972052527973</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.757288298927644</v>
@@ -15344,7 +15296,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.726214237382479</v>
+        <v>1.596324818127935</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.772791441002976</v>
@@ -15433,7 +15385,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.726205497596171</v>
+        <v>1.594431707056422</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.592077497452926</v>
@@ -15522,7 +15474,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.725802056914099</v>
+        <v>1.594479869934203</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.813672540987854</v>
@@ -15611,7 +15563,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.723817708782002</v>
+        <v>1.591951601214759</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.134035491072124</v>
@@ -15700,7 +15652,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.722819937226647</v>
+        <v>1.581130132942262</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.363983393971825</v>
@@ -15789,7 +15741,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716661921659255</v>
+        <v>1.56252241846041</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.421297963249362</v>
@@ -15878,7 +15830,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.710787847421685</v>
+        <v>1.553399961222857</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.682035699866775</v>
@@ -15967,7 +15919,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.713157124720202</v>
+        <v>1.559498640770021</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.61481861001623</v>
@@ -16056,7 +16008,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.709521293137192</v>
+        <v>1.56267730446031</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.614853493000374</v>
@@ -16145,7 +16097,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.705232821225975</v>
+        <v>1.558451791329803</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.80602512001237</v>
@@ -16234,7 +16186,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.707764159478815</v>
+        <v>1.558846306172276</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.726009678503034</v>
@@ -16323,7 +16275,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.700658088485501</v>
+        <v>1.549822821298105</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.512146034013182</v>
@@ -16412,7 +16364,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.692880342499879</v>
+        <v>1.539269378356727</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.116657582428446</v>
@@ -16501,7 +16453,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.688602023633747</v>
+        <v>1.53192945052522</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.252420404494403</v>
@@ -16590,7 +16542,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691752090343415</v>
+        <v>1.529561003323091</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.397834156721452</v>
@@ -16679,7 +16631,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694325364783804</v>
+        <v>1.534844970642023</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.399169907157501</v>
@@ -16768,7 +16720,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.692823663195303</v>
+        <v>1.535827190958259</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.603468556479861</v>
@@ -16857,7 +16809,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.688735801947782</v>
+        <v>1.530525155758414</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.313276335203575</v>
@@ -16946,7 +16898,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.690938524464434</v>
+        <v>1.541444257460207</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.803464864440192</v>
@@ -17035,7 +16987,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.708713766081158</v>
+        <v>1.576882745537158</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.568317831087957</v>
@@ -17124,7 +17076,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.722798488139828</v>
+        <v>1.600667007572343</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.626974870717331</v>
@@ -17213,7 +17165,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.726334774110745</v>
+        <v>1.608474490750924</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.551449684594532</v>
@@ -17302,7 +17254,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723433000147498</v>
+        <v>1.612561126557146</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.535277791968773</v>
@@ -17391,7 +17343,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731191961639877</v>
+        <v>1.622136975430411</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.674083128560441</v>
@@ -17480,7 +17432,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.743024750699594</v>
+        <v>1.636377257691424</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.608524892219661</v>
@@ -17569,7 +17521,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.768645452202108</v>
+        <v>1.668858136252037</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.650849385065325</v>
@@ -17658,7 +17610,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.788438484840704</v>
+        <v>1.699009522209057</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.01677896130409</v>
@@ -17747,7 +17699,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.789644967024829</v>
+        <v>1.702973149112952</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.893384095884323</v>
@@ -17836,7 +17788,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.795576332889358</v>
+        <v>1.708420016453755</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.840255596202531</v>
@@ -17925,7 +17877,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.798052028077771</v>
+        <v>1.712673760689853</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.98000621078195</v>
@@ -18014,7 +17966,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.803350595551226</v>
+        <v>1.715803114174031</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.117948479697142</v>
@@ -18103,7 +18055,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.815568944147226</v>
+        <v>1.730471404523002</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.255570720206027</v>
@@ -18192,7 +18144,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.82234475556737</v>
+        <v>1.745160019496317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.122954470614224</v>
@@ -18281,7 +18233,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.827650370470662</v>
+        <v>1.751215708293308</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.048274223358272</v>
@@ -18370,7 +18322,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.826140756398588</v>
+        <v>1.747876401546841</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.505720136610475</v>
@@ -18656,7 +18608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.82981088500045</v>
+        <v>1.734449500097377</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.574521044437545</v>
@@ -18745,7 +18697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.829880785992763</v>
+        <v>1.724980432380469</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.419517251674233</v>
@@ -18834,7 +18786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.816999938159708</v>
+        <v>1.717727997222284</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.356509233774175</v>
@@ -18923,7 +18875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.797526901748871</v>
+        <v>1.683792718495033</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.032614513526402</v>
@@ -19012,7 +18964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.783258653764468</v>
+        <v>1.651945280865224</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.732415084055854</v>
@@ -19101,7 +19053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.778654966780945</v>
+        <v>1.636842736682989</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.084279065796053</v>
@@ -19190,7 +19142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.773379594410202</v>
+        <v>1.623536564390664</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.891596827269526</v>
@@ -19279,7 +19231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.771954952697013</v>
+        <v>1.612456737034275</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.944818593895964</v>
@@ -19368,7 +19320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.768966760874464</v>
+        <v>1.608418628520198</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.421185763703586</v>
@@ -19457,7 +19409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.759506815914673</v>
+        <v>1.595634302067535</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.883725053664424</v>
@@ -19546,7 +19498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.75274131183348</v>
+        <v>1.59334841931956</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.759355105379401</v>
@@ -19635,7 +19587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.755518670422166</v>
+        <v>1.588930509179381</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.711114246811288</v>
@@ -19724,7 +19676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.755718487763718</v>
+        <v>1.588901496588907</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.945559178905098</v>
@@ -19813,7 +19765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754999295159353</v>
+        <v>1.593904523595019</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.677893018987932</v>
@@ -19902,7 +19854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.750101802537384</v>
+        <v>1.585045762665059</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.338859266690413</v>
@@ -19991,7 +19943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.748289543862472</v>
+        <v>1.574810672832025</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.386919440677508</v>
@@ -20080,7 +20032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.750306793972955</v>
+        <v>1.567200715590903</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.296436360316189</v>
@@ -20169,7 +20121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753312647575678</v>
+        <v>1.564281209994409</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.884581562582016</v>
@@ -20258,7 +20210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.756034288273211</v>
+        <v>1.562231758090588</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.405126154564243</v>
@@ -20347,7 +20299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742198342334184</v>
+        <v>1.550331489859138</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.219884650184615</v>
@@ -20436,7 +20388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.736953265306017</v>
+        <v>1.547289655738122</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.796374058460089</v>
@@ -20525,7 +20477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.729709287421751</v>
+        <v>1.542633392730254</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.837401240111466</v>
@@ -20614,7 +20566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.733579383994613</v>
+        <v>1.55174856541643</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.29563160987782</v>
@@ -20703,7 +20655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.736731756851387</v>
+        <v>1.554178939713837</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.344447643939611</v>
@@ -20792,7 +20744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.737608109742212</v>
+        <v>1.564901769199333</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.356161237339895</v>
@@ -20881,7 +20833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.742313300445888</v>
+        <v>1.565913715831871</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.606134569045279</v>
@@ -20970,7 +20922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.736975556240784</v>
+        <v>1.563820010509869</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.718825456515235</v>
@@ -21059,7 +21011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.728255263731796</v>
+        <v>1.551676656174592</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.251055565451699</v>
@@ -21148,7 +21100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.7250757491466</v>
+        <v>1.552783909394926</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.578730741154709</v>
@@ -21237,7 +21189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.728399033377289</v>
+        <v>1.557879280425583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.419756246123957</v>
@@ -21326,7 +21278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.72806355528398</v>
+        <v>1.555957750850905</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.504387385730282</v>
@@ -21415,7 +21367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.730861618232182</v>
+        <v>1.555143370979156</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.604844990921567</v>
@@ -21504,7 +21456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.728992803719685</v>
+        <v>1.54979145830872</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.630357422348316</v>
@@ -21593,7 +21545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728289211934266</v>
+        <v>1.558172924482688</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.097284091015089</v>
@@ -21682,7 +21634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.730738169426109</v>
+        <v>1.554139405455918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.356133679847965</v>
@@ -21771,7 +21723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.740520570428971</v>
+        <v>1.569680623969963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.624319451236352</v>
@@ -21860,7 +21812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.749466681572085</v>
+        <v>1.581399157006701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.695035445723549</v>
@@ -21949,7 +21901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.748132294777083</v>
+        <v>1.573234055418826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.510886537401431</v>
@@ -22038,7 +21990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749912369552333</v>
+        <v>1.581465026151359</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.299038336619728</v>
@@ -22127,7 +22079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.756192473332577</v>
+        <v>1.579603660409731</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.552987144534228</v>
@@ -22216,7 +22168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.755676716675982</v>
+        <v>1.58117363015848</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.622467929832103</v>
@@ -22305,7 +22257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.763719539882693</v>
+        <v>1.587801531763773</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.598353627741333</v>
@@ -22394,7 +22346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.782036881168579</v>
+        <v>1.617074740753312</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.886633415853234</v>
@@ -22483,7 +22435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.786281842092855</v>
+        <v>1.61652070170042</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.99748732142207</v>
@@ -22572,7 +22524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.789002107512541</v>
+        <v>1.622799374570455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.914612623875226</v>
@@ -22661,7 +22613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.794266540797385</v>
+        <v>1.633389205420742</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.860888869583246</v>
@@ -22750,7 +22702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.792118150298607</v>
+        <v>1.632671675325309</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.947358446789022</v>
@@ -22839,7 +22791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.803849174051295</v>
+        <v>1.650382722731908</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.727924994231085</v>
@@ -22928,7 +22880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.813747445726269</v>
+        <v>1.669460043048654</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.285510857893356</v>
@@ -23017,7 +22969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.822522114520544</v>
+        <v>1.684312038768911</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.753408126670981</v>
@@ -23106,7 +23058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.816732754347531</v>
+        <v>1.673405045624523</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.998609367452531</v>
@@ -23392,7 +23344,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.720925957444921</v>
+        <v>1.684620062798185</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.127271770489024</v>
@@ -23481,7 +23433,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.749063701818055</v>
+        <v>1.703695802957888</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.995119018145254</v>
@@ -23570,7 +23522,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.732410086208458</v>
+        <v>1.684398534555842</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.928580704697101</v>
@@ -23659,7 +23611,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.72174243988142</v>
+        <v>1.662694933074073</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.108707771906415</v>
@@ -23748,7 +23700,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.708818419908021</v>
+        <v>1.646020272454919</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.534854748716215</v>
@@ -23837,7 +23789,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.704449131933732</v>
+        <v>1.63678205951929</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.604271164023981</v>
@@ -23926,7 +23878,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.693659549154479</v>
+        <v>1.622677108730123</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.546689395549231</v>
@@ -24015,7 +23967,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.707609184772179</v>
+        <v>1.627636942450942</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.349359457527525</v>
@@ -24104,7 +24056,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.703266150754633</v>
+        <v>1.618277248911463</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.119355034570127</v>
@@ -24193,7 +24145,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.704653588327022</v>
+        <v>1.613450140006255</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.485199295301451</v>
@@ -24282,7 +24234,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.707777428572682</v>
+        <v>1.612964775092764</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.273009367910304</v>
@@ -24371,7 +24323,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.7057000498524</v>
+        <v>1.607319071625159</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.282827852659258</v>
@@ -24460,7 +24412,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.704394859954404</v>
+        <v>1.610035839836579</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.210229777838767</v>
@@ -24549,7 +24501,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.705159755723423</v>
+        <v>1.606545752556765</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.313743670704391</v>
@@ -24638,7 +24590,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.706382708389549</v>
+        <v>1.596359085779353</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.32803692631767</v>
@@ -24727,7 +24679,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.707703483547176</v>
+        <v>1.588890872375148</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.269179586870041</v>
@@ -24816,7 +24768,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.712489504767911</v>
+        <v>1.586302551449012</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.888664611466902</v>
@@ -24905,7 +24857,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.726607637704806</v>
+        <v>1.590637236071151</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.908922687781458</v>
@@ -24994,7 +24946,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.733524036224098</v>
+        <v>1.58965137561234</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.682100425475874</v>
@@ -25083,7 +25035,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.729717451680661</v>
+        <v>1.578695666615739</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.673510424786383</v>
@@ -25172,7 +25124,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.71863558070347</v>
+        <v>1.57122022092226</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.357270476561051</v>
@@ -25261,7 +25213,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.717449531802277</v>
+        <v>1.558152363957704</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.752476850165997</v>
@@ -25350,7 +25302,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.710628716634963</v>
+        <v>1.554884370012197</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.186441465847621</v>
@@ -25439,7 +25391,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717116916883916</v>
+        <v>1.560165927465595</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.965252588805021</v>
@@ -25528,7 +25480,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.713933053223508</v>
+        <v>1.565231628812915</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.80280838411381</v>
@@ -25617,7 +25569,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.716318892287211</v>
+        <v>1.564007168077793</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.714478967809812</v>
@@ -25706,7 +25658,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.70991579294502</v>
+        <v>1.55822153876914</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.594512520074566</v>
@@ -25795,7 +25747,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.715948322113392</v>
+        <v>1.558850121307698</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.278404497008018</v>
@@ -25884,7 +25836,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.720000656964074</v>
+        <v>1.565731835677495</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.438126007643581</v>
@@ -25973,7 +25925,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.720479003190799</v>
+        <v>1.566032946492511</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.583855903054647</v>
@@ -26062,7 +26014,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730552624399115</v>
+        <v>1.584750732540586</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.634724970869009</v>
@@ -26151,7 +26103,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.726313479341651</v>
+        <v>1.582126794302973</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.531095541180587</v>
@@ -26240,7 +26192,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720807143116822</v>
+        <v>1.576657759065008</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.425846637059952</v>
@@ -26329,7 +26281,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.722229016817895</v>
+        <v>1.594618067304782</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.538076492563309</v>
@@ -26418,7 +26370,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723535455488303</v>
+        <v>1.603542761005563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.31846380805556</v>
@@ -26507,7 +26459,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.730340263219438</v>
+        <v>1.619295276604368</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.307241883104735</v>
@@ -26596,7 +26548,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.73876664027196</v>
+        <v>1.644811375906971</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.242605385174753</v>
@@ -26685,7 +26637,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.738423788062643</v>
+        <v>1.644038699826459</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.185556341491425</v>
@@ -26774,7 +26726,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.739756424100116</v>
+        <v>1.651370303319468</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.055982153575756</v>
@@ -26863,7 +26815,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.724685671478918</v>
+        <v>1.643411401381933</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.938804761183563</v>
@@ -26952,7 +26904,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696585540836792</v>
+        <v>1.628143352087391</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.775042088205488</v>
@@ -27041,7 +26993,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666628965461322</v>
+        <v>1.593638719863497</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.746045971492894</v>
@@ -27130,7 +27082,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.651690164808043</v>
+        <v>1.598288876654318</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.814880967174718</v>
@@ -27219,7 +27171,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652960312087163</v>
+        <v>1.600348835859081</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.810478774900691</v>
@@ -27308,7 +27260,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.649716707023895</v>
+        <v>1.607406654929842</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.762137313168945</v>
@@ -27397,7 +27349,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622323789361012</v>
+        <v>1.585030680797263</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.763714628053672</v>
@@ -27486,7 +27438,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587817183132028</v>
+        <v>1.556551682553302</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.671395403804594</v>
@@ -27575,7 +27527,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.584917701005333</v>
+        <v>1.561834462848433</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.81855968798987</v>
@@ -27664,7 +27616,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589850873711395</v>
+        <v>1.567104303288385</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.859200076923121</v>
@@ -27753,7 +27705,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.603791803428006</v>
+        <v>1.580776681840107</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.869009339088764</v>
@@ -27842,7 +27794,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.593696302869523</v>
+        <v>1.562510553068139</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.771484836435832</v>
@@ -28128,7 +28080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615033854165363</v>
+        <v>1.529959378072844</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.937833115850813</v>
@@ -28217,7 +28169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.642720265305896</v>
+        <v>1.544083119328363</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.70886531863366</v>
@@ -28306,7 +28258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.635558868150079</v>
+        <v>1.536139200344735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.714501831463807</v>
@@ -28395,7 +28347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.633111775836943</v>
+        <v>1.516092402021154</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.669139049554568</v>
@@ -28484,7 +28436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.636108403238273</v>
+        <v>1.51113857934354</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.824794091574027</v>
@@ -28573,7 +28525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.640893346658901</v>
+        <v>1.511344957343331</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.637229193119938</v>
@@ -28662,7 +28614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.63844183533146</v>
+        <v>1.507728974721517</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.42425629081704</v>
@@ -28751,7 +28703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.641808935003679</v>
+        <v>1.505465981588018</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.120064280199528</v>
@@ -28840,7 +28792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.630879908883861</v>
+        <v>1.494764259723856</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.110263336913346</v>
@@ -28929,7 +28881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.631494349088066</v>
+        <v>1.487568628529789</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.599877993009619</v>
@@ -29018,7 +28970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.633327751477373</v>
+        <v>1.489196990612325</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.485550358542485</v>
@@ -29107,7 +29059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.624057706868238</v>
+        <v>1.479678056125795</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.329998766046717</v>
@@ -29196,7 +29148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.631668397668629</v>
+        <v>1.48451255918687</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.025763326805559</v>
@@ -29285,7 +29237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.630266741799214</v>
+        <v>1.491368536779291</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.280265210644638</v>
@@ -29374,7 +29326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.632660414192445</v>
+        <v>1.485433949341165</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.57748453876258</v>
@@ -29463,7 +29415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.636953791605273</v>
+        <v>1.484848820376524</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.506784831277591</v>
@@ -29552,7 +29504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.631675610152736</v>
+        <v>1.472774011178994</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.374977440216013</v>
@@ -29641,7 +29593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.644053175131337</v>
+        <v>1.479262504345531</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.611065259886278</v>
@@ -29730,7 +29682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.652782046330386</v>
+        <v>1.479432532538902</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.079328486787757</v>
@@ -29819,7 +29771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648892037814608</v>
+        <v>1.46514119123178</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.307088654473293</v>
@@ -29908,7 +29860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.634347809098948</v>
+        <v>1.460752993555035</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.414458406312489</v>
@@ -29997,7 +29949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.635788731865925</v>
+        <v>1.459718743108174</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.670579539976088</v>
@@ -30086,7 +30038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642308407594784</v>
+        <v>1.469976614268194</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.125911170953222</v>
@@ -30175,7 +30127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.647365017596273</v>
+        <v>1.469307059742692</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.087963481681991</v>
@@ -30264,7 +30216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.647584511332706</v>
+        <v>1.480442383475555</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.262006972654366</v>
@@ -30353,7 +30305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.647259466920723</v>
+        <v>1.480914065895977</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.603835591347536</v>
@@ -30442,7 +30394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662494393374329</v>
+        <v>1.494901390328401</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.259359877226184</v>
@@ -30531,7 +30483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.656969224175192</v>
+        <v>1.488044583081576</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.962530977314219</v>
@@ -30620,7 +30572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652284929000988</v>
+        <v>1.481480730855614</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.51928317185386</v>
@@ -30709,7 +30661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655000122245319</v>
+        <v>1.490233691006614</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.076038846630003</v>
@@ -30798,7 +30750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660599395643333</v>
+        <v>1.502805914664601</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.107369261094171</v>
@@ -30887,7 +30839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.65841220024113</v>
+        <v>1.505347738722316</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.088902294836228</v>
@@ -30976,7 +30928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.65334195545468</v>
+        <v>1.49161162216739</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.276924656632093</v>
@@ -31065,7 +31017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650182829401477</v>
+        <v>1.497247321695703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.103520406151342</v>
@@ -31154,7 +31106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.652802615463066</v>
+        <v>1.505404460529202</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.120496822068871</v>
@@ -31243,7 +31195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66981656198426</v>
+        <v>1.525666067107977</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.99507268526374</v>
@@ -31332,7 +31284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.672567554710565</v>
+        <v>1.545133258730421</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.123028468783734</v>
@@ -31421,7 +31373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665703659359783</v>
+        <v>1.53299450328365</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.886333342594195</v>
@@ -31510,7 +31462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.663540483118169</v>
+        <v>1.543895879151717</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.744282992212416</v>
@@ -31599,7 +31551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.669770315418734</v>
+        <v>1.553238302567282</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.061712028791921</v>
@@ -31688,7 +31640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.682823759669234</v>
+        <v>1.575408421384532</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.154509305188175</v>
@@ -31777,7 +31729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.690245045080904</v>
+        <v>1.584368051182125</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.026270455554414</v>
@@ -31866,7 +31818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715295874806969</v>
+        <v>1.618100093847798</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.296405476688915</v>
@@ -31955,7 +31907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.726459716959728</v>
+        <v>1.637288986654135</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.375144606031087</v>
@@ -32044,7 +31996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731939370988907</v>
+        <v>1.641351409326822</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.383397766528411</v>
@@ -32133,7 +32085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.729895755938009</v>
+        <v>1.635117623182297</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.405486201002113</v>
@@ -32222,7 +32174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.736965938343421</v>
+        <v>1.640536735640528</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.533111369965765</v>
@@ -32311,7 +32263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.753284838981568</v>
+        <v>1.671630343784761</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.212470471461214</v>
@@ -32400,7 +32352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.762113697165507</v>
+        <v>1.6885690812064</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.768304794265248</v>
@@ -32489,7 +32441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.773857917002656</v>
+        <v>1.698581508345926</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.817778951998175</v>
@@ -32578,7 +32530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.776542281269989</v>
+        <v>1.689671030560652</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.263860710642173</v>
